--- a/1st_round_screening/ACE/iteration_5/data/transfer_5.xlsx
+++ b/1st_round_screening/ACE/iteration_5/data/transfer_5.xlsx
@@ -550,10 +550,10 @@
         <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>350</v>
+        <v>198.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>151.9</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>1000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -606,10 +606,10 @@
         <v>81</v>
       </c>
       <c r="B3" t="n">
-        <v>350</v>
+        <v>198.1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>151.9</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>82</v>
       </c>
       <c r="B4" t="n">
-        <v>350</v>
+        <v>254.1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -718,10 +718,10 @@
         <v>83</v>
       </c>
       <c r="B5" t="n">
-        <v>350</v>
+        <v>254.1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -774,10 +774,10 @@
         <v>84</v>
       </c>
       <c r="B6" t="n">
-        <v>350</v>
+        <v>192.15</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>157.85</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -830,10 +830,10 @@
         <v>85</v>
       </c>
       <c r="B7" t="n">
-        <v>350</v>
+        <v>192.15</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>157.85</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -886,10 +886,10 @@
         <v>86</v>
       </c>
       <c r="B8" t="n">
-        <v>350</v>
+        <v>253.4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -942,10 +942,10 @@
         <v>87</v>
       </c>
       <c r="B9" t="n">
-        <v>350</v>
+        <v>254.1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -998,10 +998,10 @@
         <v>88</v>
       </c>
       <c r="B10" t="n">
-        <v>350</v>
+        <v>254.1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1000</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1054,10 +1054,10 @@
         <v>89</v>
       </c>
       <c r="B11" t="n">
-        <v>345.1</v>
+        <v>192.15</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>157.85</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1110,10 +1110,10 @@
         <v>90</v>
       </c>
       <c r="B12" t="n">
-        <v>350</v>
+        <v>171.85</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>178.15</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1166,10 +1166,10 @@
         <v>91</v>
       </c>
       <c r="B13" t="n">
-        <v>342.65</v>
+        <v>198.1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>151.9</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>7.35</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>92</v>
       </c>
       <c r="B14" t="n">
-        <v>350</v>
+        <v>204.75</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>145.25</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1000</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1278,10 +1278,10 @@
         <v>93</v>
       </c>
       <c r="B15" t="n">
-        <v>350</v>
+        <v>192.15</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>157.85</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>1000</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1334,10 +1334,10 @@
         <v>94</v>
       </c>
       <c r="B16" t="n">
-        <v>350</v>
+        <v>144.9</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>205.1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1000</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
         <v>95</v>
       </c>
       <c r="B17" t="n">
-        <v>350</v>
+        <v>192.15</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>157.85</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1000</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
